--- a/data/extracted_data/raw/timeseries/Roder_etal_2011_Tables1_2.xlsx
+++ b/data/extracted_data/raw/timeseries/Roder_etal_2011_Tables1_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/fix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/timeseries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC15FF8E-3B1F-BC43-8F76-AB5B5779C228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5A4CCE-398F-6940-9E10-1E8F047DCF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6380" yWindow="500" windowWidth="27920" windowHeight="18140" xr2:uid="{E7B6CCEF-755F-544D-9FF0-30D9A03C3796}"/>
   </bookViews>
@@ -951,7 +951,7 @@
   <dimension ref="A1:E225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
